--- a/output/月度核算报表_Phase1_多平台.xlsx
+++ b/output/月度核算报表_Phase1_多平台.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="110">
   <si>
     <t>平台</t>
   </si>
@@ -206,6 +206,9 @@
     <t>YIDUQQ</t>
   </si>
   <si>
+    <t>Boutique local 11月 Detail-1764659035833-e7d1</t>
+  </si>
+  <si>
     <t>QingDaoQianMiao -11月</t>
   </si>
   <si>
@@ -330,9 +333,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>platform</t>
@@ -351,8 +351,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -368,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -376,12 +384,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,38 +702,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -719,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>828</v>
@@ -748,13 +774,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>4092</v>
@@ -777,13 +803,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>3397</v>
@@ -806,13 +832,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <v>667</v>
@@ -835,13 +861,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6">
         <v>182</v>
@@ -864,13 +890,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <v>298</v>
@@ -893,13 +919,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <v>701</v>
@@ -922,13 +948,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>1200</v>
@@ -951,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>184</v>
@@ -980,13 +1006,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>298</v>
@@ -1009,13 +1035,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>269</v>
@@ -1037,8 +1063,11 @@
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>100</v>
@@ -1064,13 +1093,13 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>2860</v>
@@ -1092,8 +1121,11 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>100</v>
@@ -1118,11 +1150,14 @@
       <c r="B16" t="s">
         <v>21</v>
       </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16">
         <v>1687</v>
@@ -1145,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1174,13 +1209,13 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <v>530</v>
@@ -1203,13 +1238,13 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>4594</v>
@@ -1232,13 +1267,13 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20">
         <v>1086</v>
@@ -1261,13 +1296,13 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>1044</v>
@@ -1290,13 +1325,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <v>1487</v>
@@ -1319,13 +1354,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F23">
         <v>745</v>
@@ -1348,13 +1383,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>1847</v>
@@ -1377,13 +1412,13 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25">
         <v>62</v>
@@ -1406,13 +1441,13 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>1770</v>
@@ -1435,13 +1470,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>674</v>
@@ -1464,13 +1499,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>1130</v>
@@ -1493,13 +1528,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>237</v>
@@ -1522,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>2203</v>
@@ -1551,13 +1586,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <v>2526</v>
@@ -1580,13 +1615,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F32">
         <v>1074</v>
@@ -1609,13 +1644,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33">
         <v>526</v>
@@ -1638,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34">
         <v>633</v>
@@ -1667,13 +1702,13 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35">
         <v>283</v>
@@ -1696,13 +1731,13 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>50</v>
@@ -1725,13 +1760,13 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F37">
         <v>299</v>
@@ -1754,13 +1789,13 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38">
         <v>2895</v>
@@ -1783,13 +1818,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F39">
         <v>144</v>
@@ -1812,13 +1847,13 @@
         <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F40">
         <v>1393</v>
@@ -1841,13 +1876,13 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F41">
         <v>247</v>
@@ -1870,13 +1905,13 @@
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F42">
         <v>1307</v>
@@ -1899,13 +1934,13 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -1928,13 +1963,13 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F44">
         <v>708</v>
@@ -1957,13 +1992,13 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F45">
         <v>708</v>
@@ -1986,13 +2021,13 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F46">
         <v>17</v>
@@ -2015,13 +2050,13 @@
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47">
         <v>985</v>
@@ -2044,13 +2079,13 @@
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48">
         <v>3106</v>
@@ -2073,13 +2108,13 @@
         <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F49">
         <v>116</v>
@@ -2102,13 +2137,13 @@
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F50">
         <v>59</v>
@@ -2131,13 +2166,13 @@
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F51">
         <v>73</v>
@@ -2160,13 +2195,13 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F52">
         <v>819</v>
@@ -2189,13 +2224,13 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F53">
         <v>1500</v>
@@ -2218,13 +2253,13 @@
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F54">
         <v>198</v>
@@ -2247,13 +2282,13 @@
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F55">
         <v>744</v>
@@ -2276,13 +2311,13 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56">
         <v>2779</v>
@@ -2305,13 +2340,13 @@
         <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F57">
         <v>525</v>
@@ -2334,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2363,13 +2398,13 @@
         <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F59">
         <v>85</v>
@@ -2392,13 +2427,13 @@
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F60">
         <v>1480</v>
@@ -2421,13 +2456,13 @@
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61">
         <v>657</v>
@@ -2450,13 +2485,13 @@
         <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F62">
         <v>1348</v>
@@ -2479,13 +2514,13 @@
         <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F63">
         <v>1608</v>
@@ -2508,13 +2543,13 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F64">
         <v>424</v>
@@ -2537,13 +2572,13 @@
         <v>47</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -2566,13 +2601,13 @@
         <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66">
         <v>1080</v>
@@ -2595,13 +2630,13 @@
         <v>47</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67">
         <v>686</v>
@@ -2624,13 +2659,13 @@
         <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F68">
         <v>380</v>
@@ -2653,13 +2688,13 @@
         <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69">
         <v>3178</v>
@@ -2682,13 +2717,13 @@
         <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70">
         <v>11</v>
@@ -2711,13 +2746,13 @@
         <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F71">
         <v>514</v>
@@ -2740,13 +2775,13 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F72">
         <v>430</v>
@@ -2769,13 +2804,13 @@
         <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73">
         <v>62</v>
@@ -2798,13 +2833,13 @@
         <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F74">
         <v>1882</v>
@@ -2827,13 +2862,13 @@
         <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F75">
         <v>2593</v>
@@ -2856,13 +2891,13 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F76">
         <v>246</v>
@@ -2885,13 +2920,13 @@
         <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F77">
         <v>91</v>
@@ -2914,13 +2949,13 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F78">
         <v>112</v>
@@ -2943,13 +2978,13 @@
         <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F79">
         <v>1538</v>
@@ -2972,13 +3007,13 @@
         <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F80">
         <v>1609</v>
@@ -3001,13 +3036,13 @@
         <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F81">
         <v>1213</v>
@@ -3030,13 +3065,13 @@
         <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F82">
         <v>1478</v>
@@ -3059,22 +3094,22 @@
         <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F83">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G83">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H83">
-        <v>5424.53</v>
+        <v>5414.53</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3088,13 +3123,13 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F84">
         <v>551</v>
@@ -3117,13 +3152,13 @@
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F85">
         <v>78</v>
@@ -3146,13 +3181,13 @@
         <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F86">
         <v>2486</v>
@@ -3175,13 +3210,13 @@
         <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F87">
         <v>2289</v>
@@ -3204,13 +3239,13 @@
         <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F88">
         <v>153</v>
@@ -3233,13 +3268,13 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F89">
         <v>3555</v>
@@ -3262,22 +3297,22 @@
         <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F90">
-        <v>10626</v>
+        <v>10629</v>
       </c>
       <c r="G90">
-        <v>10626</v>
+        <v>10629</v>
       </c>
       <c r="H90">
-        <v>442475.03</v>
+        <v>442193.33</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -3291,13 +3326,13 @@
         <v>55</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F91">
         <v>1081</v>
@@ -3317,22 +3352,25 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F92">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="G92">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="H92">
-        <v>351.89</v>
+        <v>7085.91</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3343,25 +3381,25 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F93">
-        <v>4806</v>
+        <v>60</v>
       </c>
       <c r="G93">
-        <v>4806</v>
+        <v>60</v>
       </c>
       <c r="H93">
-        <v>199012.95</v>
+        <v>351.89</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -3372,25 +3410,25 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F94">
-        <v>2701</v>
+        <v>4806</v>
       </c>
       <c r="G94">
-        <v>2701</v>
+        <v>4806</v>
       </c>
       <c r="H94">
-        <v>102007.38</v>
+        <v>199012.95</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3401,25 +3439,25 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>2702</v>
       </c>
       <c r="G95">
-        <v>30</v>
+        <v>2702</v>
       </c>
       <c r="H95">
-        <v>1324.52</v>
+        <v>101927.38</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3430,25 +3468,25 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F96">
-        <v>3536</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>3536</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>147691.1</v>
+        <v>1324.52</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3459,25 +3497,25 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F97">
-        <v>9357</v>
+        <v>3536</v>
       </c>
       <c r="G97">
-        <v>9357</v>
+        <v>3536</v>
       </c>
       <c r="H97">
-        <v>347735.32</v>
+        <v>147691.1</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3488,25 +3526,25 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F98">
-        <v>2182</v>
+        <v>9358</v>
       </c>
       <c r="G98">
-        <v>2182</v>
+        <v>9358</v>
       </c>
       <c r="H98">
-        <v>10534.58</v>
+        <v>347655.32</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3517,25 +3555,25 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F99">
-        <v>176</v>
+        <v>2182</v>
       </c>
       <c r="G99">
-        <v>176</v>
+        <v>2182</v>
       </c>
       <c r="H99">
-        <v>3594.83</v>
+        <v>10534.58</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3546,22 +3584,25 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>95</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F100">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="G100">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="H100">
-        <v>180.03</v>
+        <v>3594.83</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3572,25 +3613,25 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F101">
-        <v>7466</v>
+        <v>48</v>
       </c>
       <c r="G101">
-        <v>7466</v>
+        <v>48</v>
       </c>
       <c r="H101">
-        <v>223838.48</v>
+        <v>180.03</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3601,25 +3642,25 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F102">
-        <v>4207</v>
+        <v>7467</v>
       </c>
       <c r="G102">
-        <v>4207</v>
+        <v>7467</v>
       </c>
       <c r="H102">
-        <v>153328.59</v>
+        <v>223710.08</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3630,25 +3671,25 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F103">
-        <v>36</v>
+        <v>4207</v>
       </c>
       <c r="G103">
-        <v>36</v>
+        <v>4207</v>
       </c>
       <c r="H103">
-        <v>797.4299999999999</v>
+        <v>153328.59</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3659,25 +3700,25 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F104">
-        <v>6464</v>
+        <v>36</v>
       </c>
       <c r="G104">
-        <v>6464</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>229136.49</v>
+        <v>797.4299999999999</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -3688,25 +3729,25 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F105">
-        <v>12618</v>
+        <v>6464</v>
       </c>
       <c r="G105">
-        <v>12618</v>
+        <v>6464</v>
       </c>
       <c r="H105">
-        <v>395863.79</v>
+        <v>229136.49</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -3717,25 +3758,25 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D106" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E106" t="s">
         <v>105</v>
       </c>
       <c r="F106">
-        <v>1170</v>
+        <v>12618</v>
       </c>
       <c r="G106">
-        <v>1170</v>
+        <v>12618</v>
       </c>
       <c r="H106">
-        <v>5724.15000000001</v>
+        <v>395863.79</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -3746,25 +3787,25 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E107" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F107">
-        <v>3239</v>
+        <v>1166</v>
       </c>
       <c r="G107">
-        <v>3239</v>
+        <v>1166</v>
       </c>
       <c r="H107">
-        <v>125092.61</v>
+        <v>4900.67</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -3775,25 +3816,25 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
         <v>105</v>
       </c>
       <c r="F108">
-        <v>1372</v>
+        <v>3235</v>
       </c>
       <c r="G108">
-        <v>1372</v>
+        <v>3235</v>
       </c>
       <c r="H108">
-        <v>60783.02</v>
+        <v>104080.42</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -3804,25 +3845,25 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D109" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E109" t="s">
         <v>105</v>
       </c>
       <c r="F109">
-        <v>3059</v>
+        <v>1368</v>
       </c>
       <c r="G109">
-        <v>3059</v>
+        <v>1368</v>
       </c>
       <c r="H109">
-        <v>149523.4800000001</v>
+        <v>53181.64</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -3833,25 +3874,25 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F110">
-        <v>7942</v>
+        <v>3055</v>
       </c>
       <c r="G110">
-        <v>7942</v>
+        <v>3055</v>
       </c>
       <c r="H110">
-        <v>314446.01</v>
+        <v>133044.35</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -3862,10 +3903,10 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D111" t="s">
         <v>93</v>
@@ -3874,13 +3915,13 @@
         <v>105</v>
       </c>
       <c r="F111">
-        <v>1014</v>
+        <v>7942</v>
       </c>
       <c r="G111">
-        <v>1014</v>
+        <v>7942</v>
       </c>
       <c r="H111">
-        <v>5438.28</v>
+        <v>314405.43</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -3894,22 +3935,22 @@
         <v>65</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F112">
-        <v>1305</v>
+        <v>1011</v>
       </c>
       <c r="G112">
-        <v>1305</v>
+        <v>1011</v>
       </c>
       <c r="H112">
-        <v>47172.83000000003</v>
+        <v>4595.45</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -3923,22 +3964,22 @@
         <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E113" t="s">
         <v>105</v>
       </c>
       <c r="F113">
-        <v>1470</v>
+        <v>1302</v>
       </c>
       <c r="G113">
-        <v>1470</v>
+        <v>1302</v>
       </c>
       <c r="H113">
-        <v>69248.00999999999</v>
+        <v>40008.95</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -3952,22 +3993,22 @@
         <v>67</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D114" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E114" t="s">
         <v>105</v>
       </c>
       <c r="F114">
-        <v>3583</v>
+        <v>1467</v>
       </c>
       <c r="G114">
-        <v>3583</v>
+        <v>1467</v>
       </c>
       <c r="H114">
-        <v>174515.6200000002</v>
+        <v>61884.5</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -3981,22 +4022,22 @@
         <v>68</v>
       </c>
       <c r="C115" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D115" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E115" t="s">
         <v>105</v>
       </c>
       <c r="F115">
-        <v>7239</v>
+        <v>3581</v>
       </c>
       <c r="G115">
-        <v>7239</v>
+        <v>3581</v>
       </c>
       <c r="H115">
-        <v>333423.9099999998</v>
+        <v>157596.9</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4007,25 +4048,25 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F116">
-        <v>891</v>
+        <v>7235</v>
       </c>
       <c r="G116">
-        <v>891</v>
+        <v>7235</v>
       </c>
       <c r="H116">
-        <v>3825.62</v>
+        <v>299693.04</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4036,25 +4077,25 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F117">
-        <v>591</v>
+        <v>891</v>
       </c>
       <c r="G117">
-        <v>591</v>
+        <v>891</v>
       </c>
       <c r="H117">
-        <v>11015.46</v>
+        <v>3825.62</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4065,25 +4106,25 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F118">
-        <v>1134</v>
+        <v>591</v>
       </c>
       <c r="G118">
-        <v>1134</v>
+        <v>591</v>
       </c>
       <c r="H118">
-        <v>32228.18</v>
+        <v>11015.46</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4094,25 +4135,25 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F119">
-        <v>2764</v>
+        <v>1134</v>
       </c>
       <c r="G119">
-        <v>2764</v>
+        <v>1134</v>
       </c>
       <c r="H119">
-        <v>116464.01</v>
+        <v>32228.18</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -4123,25 +4164,25 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F120">
-        <v>4832</v>
+        <v>2764</v>
       </c>
       <c r="G120">
-        <v>4832</v>
+        <v>2764</v>
       </c>
       <c r="H120">
-        <v>225698.85</v>
+        <v>116464.01</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4152,25 +4193,25 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F121">
-        <v>7879</v>
+        <v>4832</v>
       </c>
       <c r="G121">
-        <v>7879</v>
+        <v>4832</v>
       </c>
       <c r="H121">
-        <v>374269.13</v>
+        <v>225698.85</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4181,25 +4222,25 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D122" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F122">
-        <v>12</v>
+        <v>7882</v>
       </c>
       <c r="G122">
-        <v>12</v>
+        <v>7882</v>
       </c>
       <c r="H122">
-        <v>14.43</v>
+        <v>373968.47</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4210,25 +4251,25 @@
         <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F123">
-        <v>571</v>
+        <v>12</v>
       </c>
       <c r="G123">
-        <v>571</v>
+        <v>12</v>
       </c>
       <c r="H123">
-        <v>18815.47</v>
+        <v>14.43</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4239,25 +4280,25 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F124">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="G124">
-        <v>286</v>
+        <v>572</v>
       </c>
       <c r="H124">
-        <v>8680.379999999999</v>
+        <v>18735.47</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -4268,25 +4309,25 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F125">
-        <v>2625</v>
+        <v>286</v>
       </c>
       <c r="G125">
-        <v>2625</v>
+        <v>286</v>
       </c>
       <c r="H125">
-        <v>95182.58</v>
+        <v>8680.379999999999</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -4297,25 +4338,25 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D126" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F126">
-        <v>497</v>
+        <v>2628</v>
       </c>
       <c r="G126">
-        <v>497</v>
+        <v>2628</v>
       </c>
       <c r="H126">
-        <v>27507.18</v>
+        <v>95109.28999999999</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -4326,25 +4367,25 @@
         <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C127" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F127">
-        <v>3824</v>
+        <v>497</v>
       </c>
       <c r="G127">
-        <v>3824</v>
+        <v>497</v>
       </c>
       <c r="H127">
-        <v>172071.89</v>
+        <v>27507.18</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -4355,25 +4396,25 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F128">
-        <v>6984</v>
+        <v>3825</v>
       </c>
       <c r="G128">
-        <v>6984</v>
+        <v>3825</v>
       </c>
       <c r="H128">
-        <v>316875.81</v>
+        <v>171991.89</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -4384,25 +4425,25 @@
         <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C129" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D129" t="s">
         <v>97</v>
       </c>
       <c r="E129" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F129">
-        <v>321</v>
+        <v>6984</v>
       </c>
       <c r="G129">
-        <v>321</v>
+        <v>6984</v>
       </c>
       <c r="H129">
-        <v>1989.98</v>
+        <v>316836.05</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -4413,25 +4454,25 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C130" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F130">
-        <v>588</v>
+        <v>322</v>
       </c>
       <c r="G130">
-        <v>588</v>
+        <v>322</v>
       </c>
       <c r="H130">
-        <v>15505.76</v>
+        <v>1979.98</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -4442,16 +4483,16 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C131" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F131">
         <v>588</v>
@@ -4460,7 +4501,7 @@
         <v>588</v>
       </c>
       <c r="H131">
-        <v>20012.67</v>
+        <v>15505.76</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4471,25 +4512,25 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D132" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F132">
-        <v>2182</v>
+        <v>588</v>
       </c>
       <c r="G132">
-        <v>2182</v>
+        <v>588</v>
       </c>
       <c r="H132">
-        <v>82541.60000000001</v>
+        <v>20012.67</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4500,25 +4541,25 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C133" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F133">
-        <v>78</v>
+        <v>2182</v>
       </c>
       <c r="G133">
-        <v>78</v>
+        <v>2182</v>
       </c>
       <c r="H133">
-        <v>4351.09</v>
+        <v>82541.60000000001</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -4529,25 +4570,25 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C134" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F134">
-        <v>3257</v>
+        <v>78</v>
       </c>
       <c r="G134">
-        <v>3257</v>
+        <v>78</v>
       </c>
       <c r="H134">
-        <v>137788.42</v>
+        <v>4351.09</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -4558,25 +4599,25 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C135" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F135">
-        <v>10335</v>
+        <v>3257</v>
       </c>
       <c r="G135">
-        <v>10335</v>
+        <v>3257</v>
       </c>
       <c r="H135">
-        <v>480614.83</v>
+        <v>137788.42</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -4584,28 +4625,28 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C136" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D136" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E136" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F136">
-        <v>51</v>
+        <v>10336</v>
       </c>
       <c r="G136">
-        <v>51</v>
+        <v>10336</v>
       </c>
       <c r="H136">
-        <v>487.59</v>
+        <v>480486.69</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -4622,19 +4663,19 @@
         <v>82</v>
       </c>
       <c r="D137" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E137" t="s">
         <v>99</v>
       </c>
       <c r="F137">
-        <v>813</v>
+        <v>51</v>
       </c>
       <c r="G137">
-        <v>813</v>
+        <v>51</v>
       </c>
       <c r="H137">
-        <v>4108.46</v>
+        <v>487.59</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -4648,22 +4689,22 @@
         <v>72</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D138" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F138">
-        <v>21</v>
+        <v>813</v>
       </c>
       <c r="G138">
-        <v>21</v>
+        <v>813</v>
       </c>
       <c r="H138">
-        <v>179.37</v>
+        <v>4108.46</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -4680,19 +4721,19 @@
         <v>82</v>
       </c>
       <c r="D139" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E139" t="s">
         <v>99</v>
       </c>
       <c r="F139">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="G139">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="H139">
-        <v>994.59</v>
+        <v>179.37</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -4703,25 +4744,25 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C140" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F140">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="G140">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="H140">
-        <v>3714.2</v>
+        <v>994.59</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -4735,22 +4776,22 @@
         <v>72</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D141" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F141">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="G141">
-        <v>16</v>
+        <v>703</v>
       </c>
       <c r="H141">
-        <v>142.12</v>
+        <v>3714.2</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -4767,19 +4808,19 @@
         <v>82</v>
       </c>
       <c r="D142" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E142" t="s">
         <v>99</v>
       </c>
       <c r="F142">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="G142">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="H142">
-        <v>1460.49</v>
+        <v>142.12</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -4790,25 +4831,25 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D143" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F143">
-        <v>879</v>
+        <v>229</v>
       </c>
       <c r="G143">
-        <v>879</v>
+        <v>229</v>
       </c>
       <c r="H143">
-        <v>4000.43</v>
+        <v>1460.49</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -4822,22 +4863,22 @@
         <v>72</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F144">
-        <v>17</v>
+        <v>879</v>
       </c>
       <c r="G144">
-        <v>17</v>
+        <v>879</v>
       </c>
       <c r="H144">
-        <v>92.47</v>
+        <v>4000.43</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -4854,19 +4895,19 @@
         <v>82</v>
       </c>
       <c r="D145" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E145" t="s">
         <v>99</v>
       </c>
       <c r="F145">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="G145">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="H145">
-        <v>1472.62</v>
+        <v>92.47</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -4877,25 +4918,25 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C146" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D146" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F146">
-        <v>998</v>
+        <v>235</v>
       </c>
       <c r="G146">
-        <v>998</v>
+        <v>235</v>
       </c>
       <c r="H146">
-        <v>10859.89</v>
+        <v>1472.62</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -4912,19 +4953,19 @@
         <v>82</v>
       </c>
       <c r="D147" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E147" t="s">
         <v>99</v>
       </c>
       <c r="F147">
-        <v>901</v>
+        <v>998</v>
       </c>
       <c r="G147">
-        <v>901</v>
+        <v>998</v>
       </c>
       <c r="H147">
-        <v>9587.08</v>
+        <v>10859.89</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -4935,25 +4976,25 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C148" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F148">
-        <v>126</v>
+        <v>901</v>
       </c>
       <c r="G148">
-        <v>126</v>
+        <v>901</v>
       </c>
       <c r="H148">
-        <v>1629.72</v>
+        <v>9587.08</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -4964,25 +5005,25 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C149" t="s">
         <v>82</v>
       </c>
       <c r="D149" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E149" t="s">
         <v>99</v>
       </c>
       <c r="F149">
-        <v>1594</v>
+        <v>126</v>
       </c>
       <c r="G149">
-        <v>1594</v>
+        <v>126</v>
       </c>
       <c r="H149">
-        <v>15345.14</v>
+        <v>1629.72</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -4993,25 +5034,25 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D150" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E150" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F150">
-        <v>91</v>
+        <v>1594</v>
       </c>
       <c r="G150">
-        <v>91</v>
+        <v>1594</v>
       </c>
       <c r="H150">
-        <v>1123.93</v>
+        <v>15345.14</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5028,19 +5069,19 @@
         <v>82</v>
       </c>
       <c r="D151" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E151" t="s">
         <v>99</v>
       </c>
       <c r="F151">
-        <v>1334</v>
+        <v>91</v>
       </c>
       <c r="G151">
-        <v>1334</v>
+        <v>91</v>
       </c>
       <c r="H151">
-        <v>15135.61</v>
+        <v>1123.93</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5051,25 +5092,25 @@
         <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D152" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F152">
-        <v>48</v>
+        <v>1334</v>
       </c>
       <c r="G152">
-        <v>48</v>
+        <v>1334</v>
       </c>
       <c r="H152">
-        <v>701.63</v>
+        <v>15135.61</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5086,19 +5127,19 @@
         <v>82</v>
       </c>
       <c r="D153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E153" t="s">
         <v>99</v>
       </c>
       <c r="F153">
-        <v>1143</v>
+        <v>48</v>
       </c>
       <c r="G153">
-        <v>1143</v>
+        <v>48</v>
       </c>
       <c r="H153">
-        <v>8839.67</v>
+        <v>701.63</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5109,25 +5150,25 @@
         <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C154" t="s">
         <v>83</v>
       </c>
       <c r="D154" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E154" t="s">
         <v>100</v>
       </c>
       <c r="F154">
-        <v>6</v>
+        <v>1143</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>1143</v>
       </c>
       <c r="H154">
-        <v>63.5</v>
+        <v>8839.67</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5138,25 +5179,25 @@
         <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E155" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F155">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="G155">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="H155">
-        <v>988.97</v>
+        <v>63.5</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5173,19 +5214,19 @@
         <v>82</v>
       </c>
       <c r="D156" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E156" t="s">
         <v>99</v>
       </c>
       <c r="F156">
-        <v>1390</v>
+        <v>76</v>
       </c>
       <c r="G156">
-        <v>1390</v>
+        <v>76</v>
       </c>
       <c r="H156">
-        <v>8675.940000000001</v>
+        <v>988.97</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5196,25 +5237,25 @@
         <v>11</v>
       </c>
       <c r="B157" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C157" t="s">
         <v>83</v>
       </c>
       <c r="D157" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E157" t="s">
         <v>100</v>
       </c>
       <c r="F157">
-        <v>14</v>
+        <v>1390</v>
       </c>
       <c r="G157">
-        <v>14</v>
+        <v>1390</v>
       </c>
       <c r="H157">
-        <v>227.16</v>
+        <v>8675.940000000001</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -5228,22 +5269,22 @@
         <v>76</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D158" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F158">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G158">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H158">
-        <v>375.33</v>
+        <v>227.16</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5260,19 +5301,19 @@
         <v>82</v>
       </c>
       <c r="D159" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E159" t="s">
         <v>99</v>
       </c>
       <c r="F159">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="G159">
-        <v>378</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>2894.86</v>
+        <v>375.33</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -5280,28 +5321,28 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
         <v>78</v>
       </c>
       <c r="C160" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D160" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F160">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="G160">
-        <v>505</v>
+        <v>378</v>
       </c>
       <c r="H160">
-        <v>47359.45</v>
+        <v>2894.86</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -5315,22 +5356,22 @@
         <v>79</v>
       </c>
       <c r="C161" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D161" t="s">
         <v>93</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F161">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="G161">
-        <v>265</v>
+        <v>505</v>
       </c>
       <c r="H161">
-        <v>22367.08</v>
+        <v>47359.45</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5341,25 +5382,25 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C162" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D162" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F162">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="G162">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="H162">
-        <v>13615.83</v>
+        <v>22367.08</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5370,25 +5411,25 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C163" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F163">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G163">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H163">
-        <v>11477.12</v>
+        <v>13615.83</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5399,25 +5440,25 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D164" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F164">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="G164">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="H164">
-        <v>7591.81</v>
+        <v>11477.12</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -5425,30 +5466,59 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>79</v>
+      </c>
+      <c r="C165" t="s">
+        <v>89</v>
+      </c>
+      <c r="D165" t="s">
+        <v>98</v>
+      </c>
+      <c r="E165" t="s">
+        <v>105</v>
+      </c>
+      <c r="F165">
+        <v>94</v>
+      </c>
+      <c r="G165">
+        <v>94</v>
+      </c>
+      <c r="H165">
+        <v>7591.81</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
         <v>13</v>
       </c>
-      <c r="B165" t="s">
-        <v>80</v>
-      </c>
-      <c r="C165" t="s">
-        <v>88</v>
-      </c>
-      <c r="D165" t="s">
-        <v>97</v>
-      </c>
-      <c r="E165" t="s">
-        <v>104</v>
-      </c>
-      <c r="F165">
+      <c r="B166" t="s">
+        <v>81</v>
+      </c>
+      <c r="C166" t="s">
+        <v>89</v>
+      </c>
+      <c r="D166" t="s">
+        <v>98</v>
+      </c>
+      <c r="E166" t="s">
+        <v>105</v>
+      </c>
+      <c r="F166">
         <v>95</v>
       </c>
-      <c r="G165">
+      <c r="G166">
         <v>95</v>
       </c>
-      <c r="H165">
+      <c r="H166">
         <v>7888.81</v>
       </c>
-      <c r="I165">
+      <c r="I166">
         <v>0</v>
       </c>
     </row>
@@ -5459,23 +5529,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5484,7 +5554,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <v>7888.81</v>
@@ -5498,7 +5568,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3">
         <v>3856.81</v>
@@ -5512,7 +5582,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>24.38</v>
@@ -5526,7 +5596,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5">
         <v>93895.69</v>
@@ -5540,13 +5610,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>338640.83</v>
+        <v>415402.85</v>
       </c>
       <c r="D6">
-        <v>50101</v>
+        <v>58937</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5554,7 +5624,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7">
         <v>504806</v>
@@ -5568,13 +5638,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8">
-        <v>208577.82</v>
+        <v>131815.8</v>
       </c>
       <c r="D8">
-        <v>24621</v>
+        <v>15785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5582,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>102411.29</v>
@@ -5596,7 +5666,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10">
         <v>16581.02</v>
@@ -5610,7 +5680,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>76229.09</v>
@@ -5624,7 +5694,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12">
         <v>290.66</v>
@@ -5638,13 +5708,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13">
-        <v>5046853.390000001</v>
+        <v>5902116.57</v>
       </c>
       <c r="D13">
-        <v>128014</v>
+        <v>149459</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5652,27 +5722,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14">
-        <v>28998.06</v>
+        <v>38474.18</v>
       </c>
       <c r="D14">
-        <v>5602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15">
-        <v>970921.9100000001</v>
-      </c>
-      <c r="D15">
-        <v>23451</v>
+        <v>7781</v>
       </c>
     </row>
   </sheetData>
